--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcanouil/Projects/perso/curriculum-vitae/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inicholson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC643FFA-CFE9-ED48-8FC1-C059BD0D76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E670E9-09EA-4487-A515-2CAC2E6E4514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="630" windowWidth="19180" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="203">
   <si>
     <t>position</t>
   </si>
@@ -61,13 +61,7 @@
     <t>github</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>Lille, France</t>
-  </si>
-  <si>
-    <t>mickaelcanouil</t>
   </si>
   <si>
     <t>mcanouil</t>
@@ -431,9 +425,6 @@
     <t>orcid</t>
   </si>
   <si>
-    <t>0000-0002-3396-4549</t>
-  </si>
-  <si>
     <t>Biostatistician (CNRS)</t>
   </si>
   <si>
@@ -484,9 +475,6 @@
   <si>
     <t xml:space="preserve">I've been managing a team of junior statisticians and interns . 
 My role is to provide guidance regarding choices of statistical methodologies for analysing the data and code optimisation for implementing these methodologies in large scale omics data. </t>
-  </si>
-  <si>
-    <t>rgroup</t>
   </si>
   <si>
     <t>Doctor of Philosophy (Ph.D.) in Biostatistics</t>
@@ -610,9 +598,6 @@
     <t>website</t>
   </si>
   <si>
-    <t>[R Lille - R User Group (rlille.fr)](https://rlille.fr/)</t>
-  </si>
-  <si>
     <t>A Statistical Seminar Applied on Type 2 Diabetes  
 (Host: Pr. Paul Franks)</t>
   </si>
@@ -659,9 +644,6 @@
 in Lille &amp; Paris, France.</t>
   </si>
   <si>
-    <t>Consulting Senior Biostatistician</t>
-  </si>
-  <si>
     <t>Consulting Senior Biostatistician (IT&amp;M Stats)</t>
   </si>
   <si>
@@ -677,26 +659,52 @@
     <t>Statistical analyses of lipidomics and microbiome data</t>
   </si>
   <si>
-    <t>[IT&amp;M Stats](https://it-m.fr/nos-filiales/itm-stats/)</t>
-  </si>
-  <si>
-    <t>pro@mickael.canouil.dev</t>
-  </si>
-  <si>
-    <t>MickaelCanouil</t>
-  </si>
-  <si>
-    <t>mastodon</t>
-  </si>
-  <si>
-    <t>MickaelCanouil@fosstodon.org</t>
+    <t>PhD Student</t>
+  </si>
+  <si>
+    <r>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ü</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>rich, Switzerland</t>
+    </r>
+  </si>
+  <si>
+    <t>inthomas@ethz.ch</t>
+  </si>
+  <si>
+    <t>isabelnthomas</t>
+  </si>
+  <si>
+    <t>isabelntho</t>
+  </si>
+  <si>
+    <t>0009-0006-7451-8074</t>
+  </si>
+  <si>
+    <t>[Planning of Landscapes &amp; Urban systems](https://plus.ethz.ch/)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -711,6 +719,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -740,7 +766,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1022,28 +1048,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1071,17 +1095,8 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>205</v>
-      </c>
-      <c r="L1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>196</v>
       </c>
@@ -1089,35 +1104,33 @@
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2">
+        <v>41779928680</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" t="s">
-        <v>126</v>
+        <v>181</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{13E24358-E73D-48D4-9F74-411CB380A28E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1129,83 +1142,83 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1221,44 +1234,44 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="67.5" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1267,43 +1280,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1322,146 +1335,146 @@
       <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1477,81 +1490,81 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="142.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="142.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1567,17 +1580,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,173 +1601,173 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1770,149 +1783,149 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" t="s">
         <v>149</v>
       </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1928,176 +1941,176 @@
       <selection activeCell="G8" sqref="A8:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" t="s">
         <v>80</v>
       </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" t="s">
         <v>138</v>
       </c>
-      <c r="E4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D7" t="s">
         <v>135</v>
       </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2114,17 +2127,17 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2133,33 +2146,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2175,125 +2188,125 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
